--- a/DDPFDI/App_Data/1135.xlsx
+++ b/DDPFDI/App_Data/1135.xlsx
@@ -590,7 +590,7 @@
   <dimension ref="A1:T443"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
